--- a/GoogleFontsList_KR.xlsx
+++ b/GoogleFontsList_KR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AjouUniv\2020-2\F112-1.SCE491\CapstoneProject\fonts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Han\PycharmProjects\font_insertDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C141757-3E19-40C8-8B68-CBFFD53D847E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E8135-BF49-4EFA-B402-918A94EC90D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BD8C104D-E38D-4229-83D1-33022A1340BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BD8C104D-E38D-4229-83D1-33022A1340BE}"/>
   </bookViews>
   <sheets>
     <sheet name="serif" sheetId="1" r:id="rId1"/>
@@ -72,12 +72,6 @@
     <t>ttf</t>
   </si>
   <si>
-    <t>NanumGothicCoding-Regular</t>
-  </si>
-  <si>
-    <t>NanumGothicCoding-Bold</t>
-  </si>
-  <si>
     <t>SIL 1.1</t>
   </si>
   <si>
@@ -90,24 +84,6 @@
     <t>Noto Sans KR Thin</t>
   </si>
   <si>
-    <t>NotoSansKR-Thin</t>
-  </si>
-  <si>
-    <t>NotoSansKR-Light</t>
-  </si>
-  <si>
-    <t>NotoSansKR-Regular</t>
-  </si>
-  <si>
-    <t>NotoSansKR-Medium</t>
-  </si>
-  <si>
-    <t>NotoSansKR-Bold</t>
-  </si>
-  <si>
-    <t>NotoSansKR-Black</t>
-  </si>
-  <si>
     <t>Noto Sans KR Light</t>
   </si>
   <si>
@@ -138,15 +114,6 @@
     <t>NanumGothic Bold</t>
   </si>
   <si>
-    <t>NanumGothic-Regular</t>
-  </si>
-  <si>
-    <t>NanumGothic-Bold</t>
-  </si>
-  <si>
-    <t>NanumGothic-ExtraBold</t>
-  </si>
-  <si>
     <t>Nanum Myeongjo</t>
   </si>
   <si>
@@ -159,15 +126,6 @@
     <t>NanumMyeongjo ExtraBold</t>
   </si>
   <si>
-    <t>NanumMyeongjo-Regular</t>
-  </si>
-  <si>
-    <t>NanumMyeongjo-Bold</t>
-  </si>
-  <si>
-    <t>NanumMyeongjo-ExtraBold</t>
-  </si>
-  <si>
     <t>Gothic A1</t>
   </si>
   <si>
@@ -198,33 +156,6 @@
     <t>Gothic A1 ExtraBold</t>
   </si>
   <si>
-    <t>GothicA1-Thin</t>
-  </si>
-  <si>
-    <t>GothicA1-SemiBold</t>
-  </si>
-  <si>
-    <t>GothicA1-Regular</t>
-  </si>
-  <si>
-    <t>GothicA1-Medium</t>
-  </si>
-  <si>
-    <t>GothicA1-Light</t>
-  </si>
-  <si>
-    <t>GothicA1-ExtraLight</t>
-  </si>
-  <si>
-    <t>GothicA1-ExtraBold</t>
-  </si>
-  <si>
-    <t>GothicA1-Bold</t>
-  </si>
-  <si>
-    <t>GothicA1-Black</t>
-  </si>
-  <si>
     <t>NanumGothicCoding Bold</t>
   </si>
   <si>
@@ -237,12 +168,6 @@
     <t>Black Han Sans Regular</t>
   </si>
   <si>
-    <t>BlackHanSans-Regular</t>
-  </si>
-  <si>
-    <t>NanumPenScript-Regular</t>
-  </si>
-  <si>
     <t>Nanum Pen Script</t>
   </si>
   <si>
@@ -252,27 +177,6 @@
     <t>Noto Serif KR</t>
   </si>
   <si>
-    <t>NotoSerifKR-ExtraLight</t>
-  </si>
-  <si>
-    <t>NotoSerifKR-Light</t>
-  </si>
-  <si>
-    <t>NotoSerifKR-Regular</t>
-  </si>
-  <si>
-    <t>NotoSerifKR-Medium</t>
-  </si>
-  <si>
-    <t>NotoSerifKR-SemiBold</t>
-  </si>
-  <si>
-    <t>NotoSerifKR-Bold</t>
-  </si>
-  <si>
-    <t>NotoSerifKR-Black</t>
-  </si>
-  <si>
     <t>Noto Serif KR ExtraLight</t>
   </si>
   <si>
@@ -300,15 +204,9 @@
     <t>Do Hyeon Regular</t>
   </si>
   <si>
-    <t>DoHyeon-Regular</t>
-  </si>
-  <si>
     <t>Nanum Brush Script</t>
   </si>
   <si>
-    <t>NanumBrushScript-Regular</t>
-  </si>
-  <si>
     <t>Sunflower</t>
   </si>
   <si>
@@ -321,51 +219,30 @@
     <t>Sunflower Bold</t>
   </si>
   <si>
-    <t>Sunflower-Light</t>
-  </si>
-  <si>
-    <t>Sunflower-Medium</t>
-  </si>
-  <si>
-    <t>Sunflower-Bold</t>
-  </si>
-  <si>
     <t>Gugi</t>
   </si>
   <si>
     <t>Gugi Regular</t>
   </si>
   <si>
-    <t>Gugi-Regular</t>
-  </si>
-  <si>
     <t>Jua</t>
   </si>
   <si>
     <t>Jua Regular</t>
   </si>
   <si>
-    <t>Jua-Regular</t>
-  </si>
-  <si>
     <t>Hi Melody</t>
   </si>
   <si>
     <t>Hi Melody Regular</t>
   </si>
   <si>
-    <t>HiMelody-Regular</t>
-  </si>
-  <si>
     <t>Dokdo</t>
   </si>
   <si>
     <t>Dokdo Regular</t>
   </si>
   <si>
-    <t>Dokdo-Regular</t>
-  </si>
-  <si>
     <t>Gaegu</t>
   </si>
   <si>
@@ -378,72 +255,42 @@
     <t>Gaegu Bold</t>
   </si>
   <si>
-    <t>Gaegu-Light</t>
-  </si>
-  <si>
-    <t>Gaegu-Regular</t>
-  </si>
-  <si>
-    <t>Gaegu-Bold</t>
-  </si>
-  <si>
     <t>Gamja Flower</t>
   </si>
   <si>
     <t>Gamja Flower Regular</t>
   </si>
   <si>
-    <t>GamjaFlower-Regular</t>
-  </si>
-  <si>
     <t>Song Myung</t>
   </si>
   <si>
     <t>Song Myung Regular</t>
   </si>
   <si>
-    <t>SongMyung-Regular</t>
-  </si>
-  <si>
     <t>Yeon Sung</t>
   </si>
   <si>
     <t>Yeon Sung Regular</t>
   </si>
   <si>
-    <t>YeonSung-Regular</t>
-  </si>
-  <si>
     <t>Stylish</t>
   </si>
   <si>
     <t>Stylish Regular</t>
   </si>
   <si>
-    <t>Stylish-Regular</t>
-  </si>
-  <si>
     <t>Poor Story</t>
   </si>
   <si>
     <t>Poor Story Regular</t>
   </si>
   <si>
-    <t>PoorStory-Regular</t>
-  </si>
-  <si>
     <t>Cute Font</t>
   </si>
   <si>
     <t>Cute Font Regular</t>
   </si>
   <si>
-    <t>CuteFont-Regular</t>
-  </si>
-  <si>
-    <t>EastSeaDokdo-Regular</t>
-  </si>
-  <si>
     <t>East Sea Dokdo</t>
   </si>
   <si>
@@ -456,43 +303,218 @@
     <t>Black And White Picture Regular</t>
   </si>
   <si>
-    <t>BlackAndWhitePicture-Regular</t>
-  </si>
-  <si>
     <t>Kirang Haerang</t>
   </si>
   <si>
     <t>Kirang Haerang Regular</t>
   </si>
   <si>
-    <t>KirangHaerang-Regular</t>
-  </si>
-  <si>
     <t>Single Day Regular</t>
   </si>
   <si>
     <t>Single Day</t>
   </si>
   <si>
-    <t>SingleDay-Regular</t>
+    <t>NanumPenScript-Regular.ttf</t>
+  </si>
+  <si>
+    <t>NanumBrushScript-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Gugi-Regular.ttf</t>
+  </si>
+  <si>
+    <t>HiMelody-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Dokdo-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Gaegu-Light.ttf</t>
+  </si>
+  <si>
+    <t>Gaegu-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Gaegu-Bold.ttf</t>
+  </si>
+  <si>
+    <t>GamjaFlower-Regular.ttf</t>
+  </si>
+  <si>
+    <t>YeonSung-Regular.ttf</t>
+  </si>
+  <si>
+    <t>PoorStory-Regular.ttf</t>
+  </si>
+  <si>
+    <t>CuteFont-Regular.ttf</t>
+  </si>
+  <si>
+    <t>EastSeaDokdo-Regular.ttf</t>
+  </si>
+  <si>
+    <t>KirangHaerang-Regular.ttf</t>
+  </si>
+  <si>
+    <t>SingleDay-Regular.ttf</t>
+  </si>
+  <si>
+    <t>NanumGothicCoding-Regular.ttf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NanumGothicCoding-Bold.ttf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NanumGothic-Regular.ttf</t>
+  </si>
+  <si>
+    <t>NanumGothic-Bold.ttf</t>
+  </si>
+  <si>
+    <t>NanumGothic-ExtraBold.ttf</t>
+  </si>
+  <si>
+    <t>GothicA1-Thin.ttf</t>
+  </si>
+  <si>
+    <t>GothicA1-ExtraLight.ttf</t>
+  </si>
+  <si>
+    <t>GothicA1-Light.ttf</t>
+  </si>
+  <si>
+    <t>GothicA1-Regular.ttf</t>
+  </si>
+  <si>
+    <t>GothicA1-Medium.ttf</t>
+  </si>
+  <si>
+    <t>GothicA1-SemiBold.ttf</t>
+  </si>
+  <si>
+    <t>GothicA1-Bold.ttf</t>
+  </si>
+  <si>
+    <t>GothicA1-ExtraBold.ttf</t>
+  </si>
+  <si>
+    <t>GothicA1-Black.ttf</t>
+  </si>
+  <si>
+    <t>BlackHanSans-Regular.ttf</t>
+  </si>
+  <si>
+    <t>DoHyeon-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Sunflower-Light.ttf</t>
+  </si>
+  <si>
+    <t>Sunflower-Medium.ttf</t>
+  </si>
+  <si>
+    <t>Sunflower-Bold.ttf</t>
+  </si>
+  <si>
+    <t>Jua-Regular.ttf</t>
+  </si>
+  <si>
+    <t>Stylish-Regular.ttf</t>
+  </si>
+  <si>
+    <t>BlackAndWhitePicture-Regular.ttf</t>
+  </si>
+  <si>
+    <t>NanumMyeongjo-Regular.ttf</t>
+  </si>
+  <si>
+    <t>NanumMyeongjo-Bold.ttf</t>
+  </si>
+  <si>
+    <t>NanumMyeongjo-ExtraBold.ttf</t>
+  </si>
+  <si>
+    <t>SongMyung-Regular.ttf</t>
+  </si>
+  <si>
+    <t>NotoSerifKR-ExtraLight.otf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSerifKR-Light.otf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSerifKR-Regular.otf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSerifKR-Medium.otf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSerifKR-SemiBold.otf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSerifKR-Bold.otf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSerifKR-Black.otf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSansKR-Thin.otf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSansKR-Light.otf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSansKR-Regular.otf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSansKR-Medium.otf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSansKR-Bold.otf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotoSansKR-Black.otf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -520,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,7 +558,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -835,22 +857,22 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G29"/>
+      <selection activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -879,18 +901,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>400</v>
@@ -899,21 +921,21 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>700</v>
@@ -922,21 +944,21 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>800</v>
@@ -945,182 +967,182 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>300</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>400</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>600</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>700</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>900</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -1129,10 +1151,11 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1141,24 +1164,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB332B8C-052D-47BC-8D53-0A668E549E4E}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,156 +1210,156 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>400</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>500</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>700</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>900</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>400</v>
@@ -1345,21 +1368,21 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>700</v>
@@ -1368,21 +1391,21 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>800</v>
@@ -1391,21 +1414,21 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1414,21 +1437,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>200</v>
@@ -1437,21 +1460,21 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>300</v>
@@ -1460,21 +1483,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>400</v>
@@ -1483,21 +1506,21 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -1506,21 +1529,21 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>600</v>
@@ -1529,21 +1552,21 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>700</v>
@@ -1552,21 +1575,21 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>800</v>
@@ -1575,21 +1598,21 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>900</v>
@@ -1598,21 +1621,21 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>400</v>
@@ -1621,21 +1644,21 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>400</v>
@@ -1644,21 +1667,21 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>300</v>
@@ -1667,21 +1690,21 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -1690,21 +1713,21 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>700</v>
@@ -1713,21 +1736,21 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>400</v>
@@ -1736,21 +1759,21 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>400</v>
@@ -1759,21 +1782,21 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>400</v>
@@ -1782,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1796,23 +1819,23 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1841,18 +1864,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>400</v>
@@ -1861,21 +1884,21 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>700</v>
@@ -1884,10 +1907,11 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1896,24 +1920,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40F8C38-FE27-412B-A875-A73163CA6141}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1942,133 +1966,133 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>400</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>400</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>400</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
-        <v>400</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>400</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>400</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5">
-        <v>400</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>400</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>300</v>
@@ -2077,21 +2101,21 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>400</v>
@@ -2100,21 +2124,21 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>700</v>
@@ -2123,21 +2147,21 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>400</v>
@@ -2146,21 +2170,21 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>400</v>
@@ -2169,21 +2193,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -2192,21 +2216,21 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>400</v>
@@ -2215,21 +2239,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>400</v>
@@ -2238,21 +2262,21 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>400</v>
@@ -2261,21 +2285,21 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -2284,10 +2308,11 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
